--- a/Docs/Schlumpf_Zeitplan.xlsx
+++ b/Docs/Schlumpf_Zeitplan.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF8D7C2-DB2C-2046-A7E1-C33B0311FF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EE1396-3445-7D44-9CFF-0A2C34C2999D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -103,10 +103,6 @@
     <t>Erstellen der Datenbank</t>
   </si>
   <si>
-    <t xml:space="preserve">Validierung Felder (Datum, Preis, 
-Dropdown u.s.w) </t>
-  </si>
-  <si>
     <t>Umgebung fürs Testen einrichten</t>
   </si>
   <si>
@@ -147,15 +143,25 @@
   </si>
   <si>
     <t>Suche (Dateien) implementieren</t>
+  </si>
+  <si>
+    <t>Validierung Felder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -794,12 +800,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -813,7 +819,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -825,129 +831,165 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -959,46 +1001,19 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1313,7 +1328,7 @@
   <dimension ref="A1:AE44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1330,97 +1345,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="78"/>
-      <c r="D1" s="84" t="s">
+      <c r="C1" s="79"/>
+      <c r="D1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="84" t="s">
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="84" t="s">
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="86"/>
-      <c r="P1" s="84" t="s">
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="90"/>
+      <c r="P1" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="84" t="s">
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="90"/>
+      <c r="T1" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="86"/>
-      <c r="X1" s="84" t="s">
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="90"/>
+      <c r="X1" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="85"/>
-      <c r="AA1" s="86"/>
-      <c r="AB1" s="81" t="s">
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="90"/>
+      <c r="AB1" s="82" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="75"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="71">
+      <c r="A2" s="76"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="85">
         <v>44999</v>
       </c>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="71">
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="85">
         <v>45000</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="71">
+      <c r="I2" s="86"/>
+      <c r="J2" s="86"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="85">
         <v>45002</v>
       </c>
-      <c r="M2" s="72"/>
-      <c r="N2" s="72"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="71">
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="87"/>
+      <c r="P2" s="85">
         <v>45006</v>
       </c>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="73"/>
-      <c r="T2" s="71">
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="87"/>
+      <c r="T2" s="85">
         <v>45007</v>
       </c>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="73"/>
-      <c r="X2" s="71">
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="87"/>
+      <c r="X2" s="85">
         <v>45009</v>
       </c>
-      <c r="Y2" s="72"/>
-      <c r="Z2" s="72"/>
-      <c r="AA2" s="73"/>
-      <c r="AB2" s="82"/>
+      <c r="Y2" s="86"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="83"/>
     </row>
     <row r="3" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
+      <c r="A3" s="77"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1499,16 +1514,16 @@
       <c r="AA3" s="5">
         <v>17</v>
       </c>
-      <c r="AB3" s="83"/>
+      <c r="AB3" s="84"/>
     </row>
     <row r="4" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="54">
+      <c r="A4" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="37">
         <v>30</v>
       </c>
-      <c r="C4" s="56">
+      <c r="C4" s="38">
         <v>33</v>
       </c>
       <c r="D4" s="6"/>
@@ -1533,10 +1548,10 @@
       <c r="W4" s="27"/>
       <c r="X4" s="27"/>
       <c r="Y4" s="27"/>
-      <c r="Z4" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA4" s="41"/>
+      <c r="Z4" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="56"/>
       <c r="AB4" s="70"/>
       <c r="AD4" s="8" t="s">
         <v>6</v>
@@ -1544,9 +1559,9 @@
       <c r="AE4" s="27"/>
     </row>
     <row r="5" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="35"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="56"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
       <c r="F5" s="21"/>
@@ -1557,34 +1572,34 @@
       <c r="K5" s="22"/>
       <c r="L5" s="24"/>
       <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="23"/>
+      <c r="N5" s="93"/>
+      <c r="O5" s="94"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="34"/>
+      <c r="V5" s="34"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="35"/>
       <c r="Y5" s="21"/>
-      <c r="Z5" s="42"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="58"/>
+      <c r="Z5" s="57"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="50"/>
       <c r="AD5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="AE5" s="28"/>
     </row>
     <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="36">
+      <c r="A6" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="71">
         <v>4</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="73">
         <v>4</v>
       </c>
       <c r="D6" s="9"/>
@@ -1609,18 +1624,18 @@
       <c r="W6" s="22"/>
       <c r="X6" s="23"/>
       <c r="Y6" s="21"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="43"/>
-      <c r="AB6" s="58"/>
+      <c r="Z6" s="57"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="50"/>
       <c r="AD6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="AE6" s="29"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="35"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="39"/>
+      <c r="A7" s="46"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="21"/>
@@ -1643,18 +1658,18 @@
       <c r="W7" s="22"/>
       <c r="X7" s="23"/>
       <c r="Y7" s="21"/>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="43"/>
-      <c r="AB7" s="58"/>
+      <c r="Z7" s="57"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="50"/>
     </row>
     <row r="8" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="37">
         <v>2</v>
       </c>
-      <c r="C8" s="56">
+      <c r="C8" s="38">
         <v>1.5</v>
       </c>
       <c r="D8" s="27"/>
@@ -1679,14 +1694,14 @@
       <c r="W8" s="11"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="10"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="43"/>
-      <c r="AB8" s="58"/>
+      <c r="Z8" s="57"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="50"/>
     </row>
     <row r="9" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="35"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="56"/>
+      <c r="A9" s="46"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="28"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -1709,18 +1724,18 @@
       <c r="W9" s="11"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="10"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="58"/>
+      <c r="Z9" s="57"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="50"/>
     </row>
     <row r="10" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="37">
         <v>2</v>
       </c>
-      <c r="C10" s="56">
+      <c r="C10" s="38">
         <v>2.5</v>
       </c>
       <c r="D10" s="27"/>
@@ -1745,14 +1760,14 @@
       <c r="W10" s="11"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="10"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="43"/>
-      <c r="AB10" s="58"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="50"/>
     </row>
     <row r="11" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="56"/>
+      <c r="A11" s="46"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="9"/>
       <c r="E11" s="32"/>
       <c r="F11" s="10"/>
@@ -1775,15 +1790,15 @@
       <c r="W11" s="11"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="10"/>
-      <c r="Z11" s="42"/>
-      <c r="AA11" s="43"/>
-      <c r="AB11" s="58"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="50"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="66">
+      <c r="A12" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="41">
         <v>1.5</v>
       </c>
       <c r="C12" s="68">
@@ -1811,19 +1826,19 @@
       <c r="W12" s="12"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="7"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="43"/>
-      <c r="AB12" s="57" t="s">
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="49" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="62"/>
-      <c r="B13" s="67"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="69"/>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="87"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="11"/>
       <c r="H13" s="9"/>
       <c r="I13" s="10"/>
@@ -1843,18 +1858,18 @@
       <c r="W13" s="11"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="10"/>
-      <c r="Z13" s="42"/>
-      <c r="AA13" s="43"/>
-      <c r="AB13" s="58"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="50"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="47">
         <v>1</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C14" s="48">
         <v>1</v>
       </c>
       <c r="D14" s="6"/>
@@ -1879,20 +1894,20 @@
       <c r="W14" s="12"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="7"/>
-      <c r="Z14" s="42"/>
-      <c r="AA14" s="43"/>
-      <c r="AB14" s="57" t="s">
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="49" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="56"/>
+      <c r="A15" s="46"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="87"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -1911,18 +1926,18 @@
       <c r="W15" s="11"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="10"/>
-      <c r="Z15" s="42"/>
-      <c r="AA15" s="43"/>
-      <c r="AB15" s="58"/>
+      <c r="Z15" s="57"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="50"/>
     </row>
     <row r="16" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="54">
+      <c r="B16" s="37">
         <v>2</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C16" s="38">
         <v>2</v>
       </c>
       <c r="D16" s="9"/>
@@ -1947,19 +1962,19 @@
       <c r="W16" s="11"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="10"/>
-      <c r="Z16" s="42"/>
-      <c r="AA16" s="43"/>
-      <c r="AB16" s="58"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="50"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="35"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="56"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="87"/>
+      <c r="H17" s="34"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
       <c r="K17" s="11"/>
@@ -1977,18 +1992,18 @@
       <c r="W17" s="11"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="10"/>
-      <c r="Z17" s="42"/>
-      <c r="AA17" s="43"/>
-      <c r="AB17" s="58"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="50"/>
     </row>
     <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="54">
+      <c r="B18" s="37">
         <v>1.5</v>
       </c>
-      <c r="C18" s="56">
+      <c r="C18" s="38">
         <v>1</v>
       </c>
       <c r="D18" s="9"/>
@@ -2013,20 +2028,20 @@
       <c r="W18" s="11"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="10"/>
-      <c r="Z18" s="42"/>
-      <c r="AA18" s="43"/>
-      <c r="AB18" s="58"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="50"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="35"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="56"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
       <c r="G19" s="11"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="87"/>
+      <c r="I19" s="34"/>
       <c r="J19" s="10"/>
       <c r="K19" s="11"/>
       <c r="L19" s="9"/>
@@ -2043,18 +2058,18 @@
       <c r="W19" s="11"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="10"/>
-      <c r="Z19" s="42"/>
-      <c r="AA19" s="43"/>
-      <c r="AB19" s="58"/>
+      <c r="Z19" s="57"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="50"/>
     </row>
     <row r="20" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="54">
+      <c r="B20" s="37">
         <v>2</v>
       </c>
-      <c r="C20" s="56">
+      <c r="C20" s="38">
         <v>2.5</v>
       </c>
       <c r="D20" s="9"/>
@@ -2079,21 +2094,21 @@
       <c r="W20" s="11"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="10"/>
-      <c r="Z20" s="42"/>
-      <c r="AA20" s="43"/>
-      <c r="AB20" s="58"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="50"/>
     </row>
     <row r="21" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="49"/>
-      <c r="C21" s="60"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="54"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
       <c r="G21" s="15"/>
       <c r="H21" s="13"/>
       <c r="I21" s="14"/>
-      <c r="J21" s="87"/>
+      <c r="J21" s="34"/>
       <c r="K21" s="10"/>
       <c r="L21" s="13"/>
       <c r="M21" s="14"/>
@@ -2109,18 +2124,18 @@
       <c r="W21" s="15"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="14"/>
-      <c r="Z21" s="42"/>
-      <c r="AA21" s="43"/>
-      <c r="AB21" s="59"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="51"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="46" t="s">
+      <c r="A22" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="47">
         <v>0.5</v>
       </c>
-      <c r="C22" s="55">
+      <c r="C22" s="48">
         <v>0.5</v>
       </c>
       <c r="D22" s="6"/>
@@ -2145,16 +2160,16 @@
       <c r="W22" s="12"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="7"/>
-      <c r="Z22" s="42"/>
-      <c r="AA22" s="43"/>
-      <c r="AB22" s="52" t="s">
+      <c r="Z22" s="57"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="43" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
-      <c r="B23" s="49"/>
-      <c r="C23" s="60"/>
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -2162,7 +2177,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="87"/>
+      <c r="K23" s="34"/>
       <c r="L23" s="13"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
@@ -2177,18 +2192,18 @@
       <c r="W23" s="15"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="14"/>
-      <c r="Z23" s="42"/>
-      <c r="AA23" s="43"/>
-      <c r="AB23" s="53"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="44"/>
     </row>
     <row r="24" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="48">
+      <c r="B24" s="47">
         <v>1.5</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="48">
         <v>1</v>
       </c>
       <c r="D24" s="6"/>
@@ -2213,25 +2228,25 @@
       <c r="W24" s="12"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="42"/>
-      <c r="AA24" s="43"/>
-      <c r="AB24" s="57" t="s">
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="49" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="56"/>
+      <c r="A25" s="46"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="87"/>
+      <c r="E25" s="34"/>
       <c r="F25" s="10"/>
       <c r="G25" s="11"/>
       <c r="H25" s="9"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="23"/>
+      <c r="L25" s="35"/>
       <c r="M25" s="21"/>
       <c r="N25" s="10"/>
       <c r="O25" s="11"/>
@@ -2245,18 +2260,18 @@
       <c r="W25" s="11"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="10"/>
-      <c r="Z25" s="42"/>
-      <c r="AA25" s="43"/>
-      <c r="AB25" s="58"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="50"/>
     </row>
     <row r="26" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="34" t="s">
+      <c r="A26" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="54">
+      <c r="B26" s="37">
         <v>2.5</v>
       </c>
-      <c r="C26" s="56">
+      <c r="C26" s="38">
         <v>3</v>
       </c>
       <c r="D26" s="9"/>
@@ -2281,24 +2296,24 @@
       <c r="W26" s="11"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="10"/>
-      <c r="Z26" s="42"/>
-      <c r="AA26" s="43"/>
-      <c r="AB26" s="58"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="50"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="35"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="56"/>
+      <c r="A27" s="46"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="87"/>
+      <c r="F27" s="34"/>
       <c r="G27" s="11"/>
       <c r="H27" s="9"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="11"/>
       <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
+      <c r="M27" s="34"/>
       <c r="N27" s="10"/>
       <c r="O27" s="21"/>
       <c r="P27" s="9"/>
@@ -2311,18 +2326,18 @@
       <c r="W27" s="22"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="10"/>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="43"/>
-      <c r="AB27" s="58"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="50"/>
     </row>
     <row r="28" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="54">
+      <c r="A28" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="37">
         <v>1</v>
       </c>
-      <c r="C28" s="56">
+      <c r="C28" s="38">
         <v>1</v>
       </c>
       <c r="D28" s="9"/>
@@ -2347,14 +2362,14 @@
       <c r="W28" s="22"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="10"/>
-      <c r="Z28" s="42"/>
-      <c r="AA28" s="43"/>
-      <c r="AB28" s="58"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="50"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" s="64"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="56"/>
+      <c r="A29" s="67"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -2365,10 +2380,10 @@
       <c r="K29" s="11"/>
       <c r="L29" s="9"/>
       <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="10"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="34"/>
       <c r="R29" s="21"/>
       <c r="S29" s="21"/>
       <c r="T29" s="23"/>
@@ -2377,18 +2392,18 @@
       <c r="W29" s="22"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="10"/>
-      <c r="Z29" s="42"/>
-      <c r="AA29" s="43"/>
-      <c r="AB29" s="58"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="50"/>
     </row>
     <row r="30" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="63">
+      <c r="A30" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="64">
         <v>4.5</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="38">
         <v>1</v>
       </c>
       <c r="D30" s="9"/>
@@ -2413,14 +2428,14 @@
       <c r="W30" s="22"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="10"/>
-      <c r="Z30" s="42"/>
-      <c r="AA30" s="43"/>
-      <c r="AB30" s="58"/>
+      <c r="Z30" s="57"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="50"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="62"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="56"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -2432,29 +2447,29 @@
       <c r="L31" s="9"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="10"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="34"/>
       <c r="R31" s="21"/>
       <c r="S31" s="22"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="21"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="34"/>
       <c r="V31" s="21"/>
       <c r="W31" s="21"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="10"/>
-      <c r="Z31" s="42"/>
-      <c r="AA31" s="43"/>
-      <c r="AB31" s="58"/>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="50"/>
     </row>
     <row r="32" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="61" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="63">
+      <c r="A32" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="64">
         <v>2.5</v>
       </c>
-      <c r="C32" s="56">
+      <c r="C32" s="38">
         <v>2</v>
       </c>
       <c r="D32" s="9"/>
@@ -2479,14 +2494,14 @@
       <c r="W32" s="22"/>
       <c r="X32" s="9"/>
       <c r="Y32" s="10"/>
-      <c r="Z32" s="42"/>
-      <c r="AA32" s="43"/>
-      <c r="AB32" s="58"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="50"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="62"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="56"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -2499,28 +2514,28 @@
       <c r="M33" s="10"/>
       <c r="N33" s="10"/>
       <c r="O33" s="11"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="10"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="21"/>
       <c r="R33" s="21"/>
       <c r="S33" s="22"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
-      <c r="V33" s="21"/>
+      <c r="T33" s="34"/>
+      <c r="U33" s="34"/>
+      <c r="V33" s="34"/>
       <c r="W33" s="22"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="10"/>
-      <c r="Z33" s="42"/>
-      <c r="AA33" s="43"/>
-      <c r="AB33" s="58"/>
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="50"/>
     </row>
     <row r="34" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="61" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="63">
+      <c r="A34" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="64">
         <v>1.5</v>
       </c>
-      <c r="C34" s="56">
+      <c r="C34" s="38">
         <v>1</v>
       </c>
       <c r="D34" s="9"/>
@@ -2545,14 +2560,14 @@
       <c r="W34" s="21"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="10"/>
-      <c r="Z34" s="42"/>
-      <c r="AA34" s="43"/>
-      <c r="AB34" s="58"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="58"/>
+      <c r="AB34" s="50"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="62"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="56"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -2567,7 +2582,7 @@
       <c r="O35" s="11"/>
       <c r="P35" s="9"/>
       <c r="Q35" s="10"/>
-      <c r="R35" s="21"/>
+      <c r="R35" s="34"/>
       <c r="S35" s="22"/>
       <c r="T35" s="23"/>
       <c r="U35" s="21"/>
@@ -2575,18 +2590,18 @@
       <c r="W35" s="22"/>
       <c r="X35" s="23"/>
       <c r="Y35" s="21"/>
-      <c r="Z35" s="42"/>
-      <c r="AA35" s="43"/>
-      <c r="AB35" s="58"/>
+      <c r="Z35" s="57"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="50"/>
     </row>
     <row r="36" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="54">
+      <c r="A36" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="37">
         <v>4.5</v>
       </c>
-      <c r="C36" s="56">
+      <c r="C36" s="38">
         <v>3.5</v>
       </c>
       <c r="D36" s="9"/>
@@ -2611,14 +2626,14 @@
       <c r="W36" s="11"/>
       <c r="X36" s="21"/>
       <c r="Y36" s="21"/>
-      <c r="Z36" s="42"/>
-      <c r="AA36" s="43"/>
-      <c r="AB36" s="58"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="58"/>
+      <c r="AB36" s="50"/>
     </row>
     <row r="37" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="56"/>
+      <c r="A37" s="46"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -2639,20 +2654,20 @@
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
       <c r="W37" s="11"/>
-      <c r="X37" s="23"/>
+      <c r="X37" s="35"/>
       <c r="Y37" s="21"/>
-      <c r="Z37" s="42"/>
-      <c r="AA37" s="43"/>
-      <c r="AB37" s="58"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="58"/>
+      <c r="AB37" s="50"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" s="46" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="48">
+      <c r="A38" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="47">
         <v>1.5</v>
       </c>
-      <c r="C38" s="55">
+      <c r="C38" s="48">
         <v>1</v>
       </c>
       <c r="D38" s="6"/>
@@ -2677,16 +2692,16 @@
       <c r="W38" s="12"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
-      <c r="Z38" s="42"/>
-      <c r="AA38" s="43"/>
-      <c r="AB38" s="57" t="s">
-        <v>24</v>
+      <c r="Z38" s="57"/>
+      <c r="AA38" s="58"/>
+      <c r="AB38" s="49" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39" s="35"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="56"/>
+      <c r="A39" s="46"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -2704,23 +2719,23 @@
       <c r="R39" s="10"/>
       <c r="S39" s="11"/>
       <c r="T39" s="9"/>
-      <c r="U39" s="10"/>
+      <c r="U39" s="34"/>
       <c r="V39" s="21"/>
       <c r="W39" s="21"/>
       <c r="X39" s="9"/>
       <c r="Y39" s="10"/>
-      <c r="Z39" s="42"/>
-      <c r="AA39" s="43"/>
-      <c r="AB39" s="58"/>
+      <c r="Z39" s="57"/>
+      <c r="AA39" s="58"/>
+      <c r="AB39" s="50"/>
     </row>
     <row r="40" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="35" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="54">
+      <c r="A40" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="37">
         <v>4.5</v>
       </c>
-      <c r="C40" s="56">
+      <c r="C40" s="38">
         <v>4.5</v>
       </c>
       <c r="D40" s="9"/>
@@ -2745,14 +2760,14 @@
       <c r="W40" s="27"/>
       <c r="X40" s="9"/>
       <c r="Y40" s="10"/>
-      <c r="Z40" s="42"/>
-      <c r="AA40" s="43"/>
-      <c r="AB40" s="58"/>
+      <c r="Z40" s="57"/>
+      <c r="AA40" s="58"/>
+      <c r="AB40" s="50"/>
     </row>
     <row r="41" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="47"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="60"/>
+      <c r="A41" s="52"/>
+      <c r="B41" s="53"/>
+      <c r="C41" s="54"/>
       <c r="D41" s="13"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -2773,20 +2788,20 @@
       <c r="U41" s="14"/>
       <c r="V41" s="14"/>
       <c r="W41" s="15"/>
-      <c r="X41" s="13"/>
-      <c r="Y41" s="14"/>
-      <c r="Z41" s="42"/>
-      <c r="AA41" s="43"/>
-      <c r="AB41" s="59"/>
+      <c r="X41" s="91"/>
+      <c r="Y41" s="92"/>
+      <c r="Z41" s="57"/>
+      <c r="AA41" s="58"/>
+      <c r="AB41" s="51"/>
     </row>
     <row r="42" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B42" s="48">
+      <c r="A42" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B42" s="47">
         <v>2.5</v>
       </c>
-      <c r="C42" s="50">
+      <c r="C42" s="61">
         <v>2</v>
       </c>
       <c r="D42" s="16"/>
@@ -2811,16 +2826,16 @@
       <c r="W42" s="10"/>
       <c r="X42" s="33"/>
       <c r="Y42" s="27"/>
-      <c r="Z42" s="42"/>
-      <c r="AA42" s="43"/>
-      <c r="AB42" s="52" t="s">
-        <v>27</v>
+      <c r="Z42" s="57"/>
+      <c r="AA42" s="58"/>
+      <c r="AB42" s="43" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="47"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="51"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="53"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="13"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -2843,13 +2858,13 @@
       <c r="W43" s="15"/>
       <c r="X43" s="13"/>
       <c r="Y43" s="14"/>
-      <c r="Z43" s="44"/>
-      <c r="AA43" s="45"/>
-      <c r="AB43" s="53"/>
+      <c r="Z43" s="59"/>
+      <c r="AA43" s="60"/>
+      <c r="AB43" s="44"/>
     </row>
     <row r="44" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44" s="20">
         <f>SUM(B4:B43)</f>
@@ -2874,19 +2889,15 @@
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:O1"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C2"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="AB12:AB13"/>
     <mergeCell ref="AB4:AB11"/>
     <mergeCell ref="A8:A9"/>
@@ -2895,6 +2906,12 @@
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="AB14:AB21"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="B16:B17"/>
@@ -2929,9 +2946,6 @@
     <mergeCell ref="A40:A41"/>
     <mergeCell ref="B40:B41"/>
     <mergeCell ref="C40:C41"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
     <mergeCell ref="Z4:AA43"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="B42:B43"/>
@@ -2945,6 +2959,7 @@
     <mergeCell ref="C28:C29"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="59" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>

--- a/Docs/Schlumpf_Zeitplan.xlsx
+++ b/Docs/Schlumpf_Zeitplan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EE1396-3445-7D44-9CFF-0A2C34C2999D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF50364E-9790-C648-9318-D78C58A1C5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,8 +233,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -271,6 +277,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="41">
     <border>
@@ -800,7 +812,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -848,172 +860,173 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1327,8 +1340,8 @@
   </sheetPr>
   <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="111" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="84" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:AE44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1345,97 +1358,97 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="88" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
-      <c r="H1" s="88" t="s">
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="90"/>
-      <c r="L1" s="88" t="s">
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="88" t="s">
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="89"/>
-      <c r="R1" s="89"/>
-      <c r="S1" s="90"/>
-      <c r="T1" s="88" t="s">
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="89"/>
-      <c r="V1" s="89"/>
-      <c r="W1" s="90"/>
-      <c r="X1" s="88" t="s">
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="89"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="90"/>
-      <c r="AB1" s="82" t="s">
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="41" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2" s="76"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="85">
+      <c r="A2" s="51"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="44">
         <v>44999</v>
       </c>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="85">
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="44">
         <v>45000</v>
       </c>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="85">
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="44">
         <v>45002</v>
       </c>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="85">
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="44">
         <v>45006</v>
       </c>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="87"/>
-      <c r="T2" s="85">
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="44">
         <v>45007</v>
       </c>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="87"/>
-      <c r="X2" s="85">
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="44">
         <v>45009</v>
       </c>
-      <c r="Y2" s="86"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="83"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="42"/>
     </row>
     <row r="3" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="77"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1514,17 +1527,17 @@
       <c r="AA3" s="5">
         <v>17</v>
       </c>
-      <c r="AB3" s="84"/>
+      <c r="AB3" s="43"/>
     </row>
     <row r="4" spans="1:31" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="64">
         <v>30</v>
       </c>
-      <c r="C4" s="38">
-        <v>33</v>
+      <c r="C4" s="65">
+        <v>22</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="7"/>
@@ -1548,20 +1561,20 @@
       <c r="W4" s="27"/>
       <c r="X4" s="27"/>
       <c r="Y4" s="27"/>
-      <c r="Z4" s="55" t="s">
+      <c r="Z4" s="81" t="s">
         <v>29</v>
       </c>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="70"/>
+      <c r="AA4" s="82"/>
+      <c r="AB4" s="68"/>
       <c r="AD4" s="8" t="s">
         <v>6</v>
       </c>
       <c r="AE4" s="27"/>
     </row>
     <row r="5" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="46"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
+      <c r="A5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="65"/>
       <c r="D5" s="9"/>
       <c r="E5" s="10"/>
       <c r="F5" s="21"/>
@@ -1572,8 +1585,8 @@
       <c r="K5" s="22"/>
       <c r="L5" s="24"/>
       <c r="M5" s="25"/>
-      <c r="N5" s="93"/>
-      <c r="O5" s="94"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="40"/>
       <c r="P5" s="35"/>
       <c r="Q5" s="34"/>
       <c r="R5" s="34"/>
@@ -1584,22 +1597,22 @@
       <c r="W5" s="36"/>
       <c r="X5" s="35"/>
       <c r="Y5" s="21"/>
-      <c r="Z5" s="57"/>
-      <c r="AA5" s="58"/>
-      <c r="AB5" s="50"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="67"/>
       <c r="AD5" s="8" t="s">
         <v>7</v>
       </c>
       <c r="AE5" s="28"/>
     </row>
     <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="71">
+      <c r="B6" s="70">
         <v>4</v>
       </c>
-      <c r="C6" s="73">
+      <c r="C6" s="72">
         <v>4</v>
       </c>
       <c r="D6" s="9"/>
@@ -1624,18 +1637,18 @@
       <c r="W6" s="22"/>
       <c r="X6" s="23"/>
       <c r="Y6" s="21"/>
-      <c r="Z6" s="57"/>
-      <c r="AA6" s="58"/>
-      <c r="AB6" s="50"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="67"/>
       <c r="AD6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="AE6" s="29"/>
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A7" s="46"/>
-      <c r="B7" s="72"/>
-      <c r="C7" s="74"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="73"/>
       <c r="D7" s="9"/>
       <c r="E7" s="10"/>
       <c r="F7" s="21"/>
@@ -1658,19 +1671,19 @@
       <c r="W7" s="22"/>
       <c r="X7" s="23"/>
       <c r="Y7" s="21"/>
-      <c r="Z7" s="57"/>
-      <c r="AA7" s="58"/>
-      <c r="AB7" s="50"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="84"/>
+      <c r="AB7" s="67"/>
     </row>
     <row r="8" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="64">
         <v>2</v>
       </c>
-      <c r="C8" s="38">
-        <v>1.5</v>
+      <c r="C8" s="65">
+        <v>1</v>
       </c>
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
@@ -1694,14 +1707,14 @@
       <c r="W8" s="11"/>
       <c r="X8" s="9"/>
       <c r="Y8" s="10"/>
-      <c r="Z8" s="57"/>
-      <c r="AA8" s="58"/>
-      <c r="AB8" s="50"/>
+      <c r="Z8" s="83"/>
+      <c r="AA8" s="84"/>
+      <c r="AB8" s="67"/>
     </row>
     <row r="9" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="46"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
+      <c r="A9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="28"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -1724,19 +1737,19 @@
       <c r="W9" s="11"/>
       <c r="X9" s="9"/>
       <c r="Y9" s="10"/>
-      <c r="Z9" s="57"/>
-      <c r="AA9" s="58"/>
-      <c r="AB9" s="50"/>
+      <c r="Z9" s="83"/>
+      <c r="AA9" s="84"/>
+      <c r="AB9" s="67"/>
     </row>
     <row r="10" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="64">
         <v>2</v>
       </c>
-      <c r="C10" s="38">
-        <v>2.5</v>
+      <c r="C10" s="65">
+        <v>1</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -1760,14 +1773,14 @@
       <c r="W10" s="11"/>
       <c r="X10" s="9"/>
       <c r="Y10" s="10"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="58"/>
-      <c r="AB10" s="50"/>
+      <c r="Z10" s="83"/>
+      <c r="AA10" s="84"/>
+      <c r="AB10" s="67"/>
     </row>
     <row r="11" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="9"/>
       <c r="E11" s="32"/>
       <c r="F11" s="10"/>
@@ -1790,18 +1803,18 @@
       <c r="W11" s="11"/>
       <c r="X11" s="9"/>
       <c r="Y11" s="10"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="58"/>
-      <c r="AB11" s="50"/>
+      <c r="Z11" s="83"/>
+      <c r="AA11" s="84"/>
+      <c r="AB11" s="67"/>
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="41">
+      <c r="B12" s="91">
         <v>1.5</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="93">
         <v>1</v>
       </c>
       <c r="D12" s="6"/>
@@ -1826,16 +1839,16 @@
       <c r="W12" s="12"/>
       <c r="X12" s="6"/>
       <c r="Y12" s="7"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="58"/>
-      <c r="AB12" s="49" t="s">
+      <c r="Z12" s="83"/>
+      <c r="AA12" s="84"/>
+      <c r="AB12" s="66" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="69"/>
+      <c r="A13" s="78"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="94"/>
       <c r="D13" s="9"/>
       <c r="E13" s="10"/>
       <c r="F13" s="34"/>
@@ -1858,19 +1871,19 @@
       <c r="W13" s="11"/>
       <c r="X13" s="9"/>
       <c r="Y13" s="10"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="58"/>
-      <c r="AB13" s="50"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="84"/>
+      <c r="AB13" s="67"/>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="47">
+      <c r="B14" s="59">
         <v>1</v>
       </c>
-      <c r="C14" s="48">
-        <v>1</v>
+      <c r="C14" s="61">
+        <v>2</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="7"/>
@@ -1894,20 +1907,20 @@
       <c r="W14" s="12"/>
       <c r="X14" s="6"/>
       <c r="Y14" s="7"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="58"/>
-      <c r="AB14" s="49" t="s">
+      <c r="Z14" s="83"/>
+      <c r="AA14" s="84"/>
+      <c r="AB14" s="66" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A15" s="46"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="38"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
-      <c r="G15" s="34"/>
+      <c r="G15" s="95"/>
       <c r="H15" s="9"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -1926,18 +1939,18 @@
       <c r="W15" s="11"/>
       <c r="X15" s="9"/>
       <c r="Y15" s="10"/>
-      <c r="Z15" s="57"/>
-      <c r="AA15" s="58"/>
-      <c r="AB15" s="50"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="84"/>
+      <c r="AB15" s="67"/>
     </row>
     <row r="16" spans="1:31" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="46" t="s">
+      <c r="A16" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="37">
-        <v>2</v>
-      </c>
-      <c r="C16" s="38">
+      <c r="B16" s="64">
+        <v>1</v>
+      </c>
+      <c r="C16" s="65">
         <v>2</v>
       </c>
       <c r="D16" s="9"/>
@@ -1962,14 +1975,14 @@
       <c r="W16" s="11"/>
       <c r="X16" s="9"/>
       <c r="Y16" s="10"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="58"/>
-      <c r="AB16" s="50"/>
+      <c r="Z16" s="83"/>
+      <c r="AA16" s="84"/>
+      <c r="AB16" s="67"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="38"/>
+      <c r="A17" s="63"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -1992,18 +2005,18 @@
       <c r="W17" s="11"/>
       <c r="X17" s="9"/>
       <c r="Y17" s="10"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="58"/>
-      <c r="AB17" s="50"/>
+      <c r="Z17" s="83"/>
+      <c r="AA17" s="84"/>
+      <c r="AB17" s="67"/>
     </row>
     <row r="18" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="37">
-        <v>1.5</v>
-      </c>
-      <c r="C18" s="38">
+      <c r="B18" s="64">
+        <v>1</v>
+      </c>
+      <c r="C18" s="65">
         <v>1</v>
       </c>
       <c r="D18" s="9"/>
@@ -2028,14 +2041,14 @@
       <c r="W18" s="11"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="10"/>
-      <c r="Z18" s="57"/>
-      <c r="AA18" s="58"/>
-      <c r="AB18" s="50"/>
+      <c r="Z18" s="83"/>
+      <c r="AA18" s="84"/>
+      <c r="AB18" s="67"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A19" s="46"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="9"/>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -2058,18 +2071,18 @@
       <c r="W19" s="11"/>
       <c r="X19" s="9"/>
       <c r="Y19" s="10"/>
-      <c r="Z19" s="57"/>
-      <c r="AA19" s="58"/>
-      <c r="AB19" s="50"/>
+      <c r="Z19" s="83"/>
+      <c r="AA19" s="84"/>
+      <c r="AB19" s="67"/>
     </row>
     <row r="20" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="37">
-        <v>2</v>
-      </c>
-      <c r="C20" s="38">
+      <c r="B20" s="64">
+        <v>1</v>
+      </c>
+      <c r="C20" s="65">
         <v>2.5</v>
       </c>
       <c r="D20" s="9"/>
@@ -2094,14 +2107,14 @@
       <c r="W20" s="11"/>
       <c r="X20" s="9"/>
       <c r="Y20" s="10"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="50"/>
+      <c r="Z20" s="83"/>
+      <c r="AA20" s="84"/>
+      <c r="AB20" s="67"/>
     </row>
     <row r="21" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="54"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="62"/>
       <c r="D21" s="13"/>
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
@@ -2124,18 +2137,18 @@
       <c r="W21" s="15"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="14"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="58"/>
-      <c r="AB21" s="51"/>
+      <c r="Z21" s="83"/>
+      <c r="AA21" s="84"/>
+      <c r="AB21" s="74"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="47">
+      <c r="B22" s="59">
         <v>0.5</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="61">
         <v>0.5</v>
       </c>
       <c r="D22" s="6"/>
@@ -2160,16 +2173,16 @@
       <c r="W22" s="12"/>
       <c r="X22" s="6"/>
       <c r="Y22" s="7"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="58"/>
-      <c r="AB22" s="43" t="s">
+      <c r="Z22" s="83"/>
+      <c r="AA22" s="84"/>
+      <c r="AB22" s="75" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="62"/>
       <c r="D23" s="13"/>
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
@@ -2177,7 +2190,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="14"/>
       <c r="J23" s="14"/>
-      <c r="K23" s="34"/>
+      <c r="K23" s="95"/>
       <c r="L23" s="13"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
@@ -2192,18 +2205,18 @@
       <c r="W23" s="15"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="14"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="58"/>
-      <c r="AB23" s="44"/>
+      <c r="Z23" s="83"/>
+      <c r="AA23" s="84"/>
+      <c r="AB23" s="76"/>
     </row>
     <row r="24" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="47">
-        <v>1.5</v>
-      </c>
-      <c r="C24" s="48">
+      <c r="B24" s="59">
+        <v>1</v>
+      </c>
+      <c r="C24" s="61">
         <v>1</v>
       </c>
       <c r="D24" s="6"/>
@@ -2228,16 +2241,16 @@
       <c r="W24" s="12"/>
       <c r="X24" s="6"/>
       <c r="Y24" s="7"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="58"/>
-      <c r="AB24" s="49" t="s">
+      <c r="Z24" s="83"/>
+      <c r="AA24" s="84"/>
+      <c r="AB24" s="66" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A25" s="46"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="38"/>
+      <c r="A25" s="63"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="9"/>
       <c r="E25" s="34"/>
       <c r="F25" s="10"/>
@@ -2260,19 +2273,19 @@
       <c r="W25" s="11"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="10"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="58"/>
-      <c r="AB25" s="50"/>
+      <c r="Z25" s="83"/>
+      <c r="AA25" s="84"/>
+      <c r="AB25" s="67"/>
     </row>
     <row r="26" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="37">
-        <v>2.5</v>
-      </c>
-      <c r="C26" s="38">
-        <v>3</v>
+      <c r="B26" s="64">
+        <v>1</v>
+      </c>
+      <c r="C26" s="65">
+        <v>1</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="10"/>
@@ -2296,14 +2309,14 @@
       <c r="W26" s="11"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="10"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="58"/>
-      <c r="AB26" s="50"/>
+      <c r="Z26" s="83"/>
+      <c r="AA26" s="84"/>
+      <c r="AB26" s="67"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A27" s="46"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="38"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="9"/>
       <c r="E27" s="10"/>
       <c r="F27" s="34"/>
@@ -2326,19 +2339,19 @@
       <c r="W27" s="22"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="10"/>
-      <c r="Z27" s="57"/>
-      <c r="AA27" s="58"/>
-      <c r="AB27" s="50"/>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="84"/>
+      <c r="AB27" s="67"/>
     </row>
     <row r="28" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="65" t="s">
+      <c r="A28" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="37">
-        <v>1</v>
-      </c>
-      <c r="C28" s="38">
-        <v>1</v>
+      <c r="B28" s="64">
+        <v>4</v>
+      </c>
+      <c r="C28" s="65">
+        <v>6</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="10"/>
@@ -2362,14 +2375,14 @@
       <c r="W28" s="22"/>
       <c r="X28" s="9"/>
       <c r="Y28" s="10"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="58"/>
-      <c r="AB28" s="50"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="84"/>
+      <c r="AB28" s="67"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A29" s="67"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="38"/>
+      <c r="A29" s="80"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
       <c r="D29" s="9"/>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -2392,19 +2405,19 @@
       <c r="W29" s="22"/>
       <c r="X29" s="9"/>
       <c r="Y29" s="10"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="58"/>
-      <c r="AB29" s="50"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="84"/>
+      <c r="AB29" s="67"/>
     </row>
     <row r="30" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="66" t="s">
+      <c r="A30" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="64">
-        <v>4.5</v>
-      </c>
-      <c r="C30" s="38">
-        <v>1</v>
+      <c r="B30" s="79">
+        <v>5</v>
+      </c>
+      <c r="C30" s="65">
+        <v>6</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="10"/>
@@ -2428,14 +2441,14 @@
       <c r="W30" s="22"/>
       <c r="X30" s="9"/>
       <c r="Y30" s="10"/>
-      <c r="Z30" s="57"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="50"/>
+      <c r="Z30" s="83"/>
+      <c r="AA30" s="84"/>
+      <c r="AB30" s="67"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A31" s="40"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="38"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="65"/>
       <c r="D31" s="9"/>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -2458,19 +2471,19 @@
       <c r="W31" s="21"/>
       <c r="X31" s="9"/>
       <c r="Y31" s="10"/>
-      <c r="Z31" s="57"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="50"/>
+      <c r="Z31" s="83"/>
+      <c r="AA31" s="84"/>
+      <c r="AB31" s="67"/>
     </row>
     <row r="32" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="64">
-        <v>2.5</v>
-      </c>
-      <c r="C32" s="38">
-        <v>2</v>
+      <c r="B32" s="79">
+        <v>4</v>
+      </c>
+      <c r="C32" s="65">
+        <v>4</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="10"/>
@@ -2494,14 +2507,14 @@
       <c r="W32" s="22"/>
       <c r="X32" s="9"/>
       <c r="Y32" s="10"/>
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="58"/>
-      <c r="AB32" s="50"/>
+      <c r="Z32" s="83"/>
+      <c r="AA32" s="84"/>
+      <c r="AB32" s="67"/>
     </row>
     <row r="33" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="38"/>
+      <c r="A33" s="78"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="9"/>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -2524,18 +2537,18 @@
       <c r="W33" s="22"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="10"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="58"/>
-      <c r="AB33" s="50"/>
+      <c r="Z33" s="83"/>
+      <c r="AA33" s="84"/>
+      <c r="AB33" s="67"/>
     </row>
     <row r="34" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="64">
-        <v>1.5</v>
-      </c>
-      <c r="C34" s="38">
+      <c r="B34" s="79">
+        <v>1</v>
+      </c>
+      <c r="C34" s="65">
         <v>1</v>
       </c>
       <c r="D34" s="9"/>
@@ -2560,14 +2573,14 @@
       <c r="W34" s="21"/>
       <c r="X34" s="9"/>
       <c r="Y34" s="10"/>
-      <c r="Z34" s="57"/>
-      <c r="AA34" s="58"/>
-      <c r="AB34" s="50"/>
+      <c r="Z34" s="83"/>
+      <c r="AA34" s="84"/>
+      <c r="AB34" s="67"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A35" s="40"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
+      <c r="A35" s="78"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="9"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -2590,19 +2603,19 @@
       <c r="W35" s="22"/>
       <c r="X35" s="23"/>
       <c r="Y35" s="21"/>
-      <c r="Z35" s="57"/>
-      <c r="AA35" s="58"/>
-      <c r="AB35" s="50"/>
+      <c r="Z35" s="83"/>
+      <c r="AA35" s="84"/>
+      <c r="AB35" s="67"/>
     </row>
     <row r="36" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="65" t="s">
+      <c r="A36" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="37">
-        <v>4.5</v>
-      </c>
-      <c r="C36" s="38">
-        <v>3.5</v>
+      <c r="B36" s="64">
+        <v>2.5</v>
+      </c>
+      <c r="C36" s="65">
+        <v>0</v>
       </c>
       <c r="D36" s="9"/>
       <c r="E36" s="10"/>
@@ -2626,14 +2639,14 @@
       <c r="W36" s="11"/>
       <c r="X36" s="21"/>
       <c r="Y36" s="21"/>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="58"/>
-      <c r="AB36" s="50"/>
+      <c r="Z36" s="83"/>
+      <c r="AA36" s="84"/>
+      <c r="AB36" s="67"/>
     </row>
     <row r="37" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="38"/>
+      <c r="A37" s="63"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="9"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -2649,25 +2662,25 @@
       <c r="P37" s="9"/>
       <c r="Q37" s="10"/>
       <c r="R37" s="10"/>
-      <c r="S37" s="10"/>
+      <c r="S37" s="95"/>
       <c r="T37" s="9"/>
       <c r="U37" s="10"/>
       <c r="V37" s="10"/>
       <c r="W37" s="11"/>
       <c r="X37" s="35"/>
       <c r="Y37" s="21"/>
-      <c r="Z37" s="57"/>
-      <c r="AA37" s="58"/>
-      <c r="AB37" s="50"/>
+      <c r="Z37" s="83"/>
+      <c r="AA37" s="84"/>
+      <c r="AB37" s="67"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="B38" s="47">
+      <c r="B38" s="59">
         <v>1.5</v>
       </c>
-      <c r="C38" s="48">
+      <c r="C38" s="61">
         <v>1</v>
       </c>
       <c r="D38" s="6"/>
@@ -2692,16 +2705,16 @@
       <c r="W38" s="12"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
-      <c r="Z38" s="57"/>
-      <c r="AA38" s="58"/>
-      <c r="AB38" s="49" t="s">
+      <c r="Z38" s="83"/>
+      <c r="AA38" s="84"/>
+      <c r="AB38" s="66" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.2">
-      <c r="A39" s="46"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="38"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="9"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -2724,19 +2737,19 @@
       <c r="W39" s="21"/>
       <c r="X39" s="9"/>
       <c r="Y39" s="10"/>
-      <c r="Z39" s="57"/>
-      <c r="AA39" s="58"/>
-      <c r="AB39" s="50"/>
+      <c r="Z39" s="83"/>
+      <c r="AA39" s="84"/>
+      <c r="AB39" s="67"/>
     </row>
     <row r="40" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="46" t="s">
+      <c r="A40" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="37">
-        <v>4.5</v>
-      </c>
-      <c r="C40" s="38">
-        <v>4.5</v>
+      <c r="B40" s="64">
+        <v>2</v>
+      </c>
+      <c r="C40" s="65">
+        <v>2</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="10"/>
@@ -2760,14 +2773,14 @@
       <c r="W40" s="27"/>
       <c r="X40" s="9"/>
       <c r="Y40" s="10"/>
-      <c r="Z40" s="57"/>
-      <c r="AA40" s="58"/>
-      <c r="AB40" s="50"/>
+      <c r="Z40" s="83"/>
+      <c r="AA40" s="84"/>
+      <c r="AB40" s="67"/>
     </row>
     <row r="41" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="54"/>
+      <c r="A41" s="58"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="13"/>
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
@@ -2788,20 +2801,20 @@
       <c r="U41" s="14"/>
       <c r="V41" s="14"/>
       <c r="W41" s="15"/>
-      <c r="X41" s="91"/>
-      <c r="Y41" s="92"/>
-      <c r="Z41" s="57"/>
-      <c r="AA41" s="58"/>
-      <c r="AB41" s="51"/>
+      <c r="X41" s="37"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="83"/>
+      <c r="AA41" s="84"/>
+      <c r="AB41" s="74"/>
     </row>
     <row r="42" spans="1:28" ht="16" x14ac:dyDescent="0.2">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="B42" s="47">
+      <c r="B42" s="59">
         <v>2.5</v>
       </c>
-      <c r="C42" s="61">
+      <c r="C42" s="87">
         <v>2</v>
       </c>
       <c r="D42" s="16"/>
@@ -2826,16 +2839,16 @@
       <c r="W42" s="10"/>
       <c r="X42" s="33"/>
       <c r="Y42" s="27"/>
-      <c r="Z42" s="57"/>
-      <c r="AA42" s="58"/>
-      <c r="AB42" s="43" t="s">
+      <c r="Z42" s="83"/>
+      <c r="AA42" s="84"/>
+      <c r="AB42" s="75" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
-      <c r="B43" s="53"/>
-      <c r="C43" s="62"/>
+      <c r="A43" s="58"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="88"/>
       <c r="D43" s="13"/>
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
@@ -2856,72 +2869,49 @@
       <c r="U43" s="14"/>
       <c r="V43" s="14"/>
       <c r="W43" s="15"/>
-      <c r="X43" s="13"/>
-      <c r="Y43" s="14"/>
-      <c r="Z43" s="59"/>
-      <c r="AA43" s="60"/>
-      <c r="AB43" s="44"/>
-    </row>
-    <row r="44" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X43" s="37"/>
+      <c r="Y43" s="38"/>
+      <c r="Z43" s="85"/>
+      <c r="AA43" s="86"/>
+      <c r="AB43" s="76"/>
+    </row>
+    <row r="44" spans="1:28" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B44" s="20">
         <f>SUM(B4:B43)</f>
-        <v>73</v>
+        <v>68.5</v>
       </c>
       <c r="C44" s="20">
         <f>SUM(C4:C43)</f>
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="AB1:AB3"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="X1:AA1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="H1:K1"/>
-    <mergeCell ref="L1:O1"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AB4:AB11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="AB14:AB21"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="AB42:AB43"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="AB38:AB41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="Z4:AA43"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A36:A37"/>
     <mergeCell ref="AB22:AB23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
@@ -2938,29 +2928,53 @@
     <mergeCell ref="C32:C33"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
-    <mergeCell ref="AB42:AB43"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="AB38:AB41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="Z4:AA43"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="AB14:AB21"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AB4:AB11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:C2"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="AB1:AB3"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="X1:AA1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:O1"/>
+    <mergeCell ref="X2:AA2"/>
   </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" scale="59" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
